--- a/cantera_simulations/Graaf_data/Feed_6a.xlsx
+++ b/cantera_simulations/Graaf_data/Feed_6a.xlsx
@@ -1,30 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blais.ch/_01_code/meOH-synthesis/cantera_simulations/Graaf_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blais.ch/_01_code/05_Project_repos_Github/meOH_repos/meOH-analysis/cantera_simulations/Graaf_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5CE07AC-DFF3-B240-818D-22D2B5FB3D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D25250-FE82-2944-B17A-59F823512258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>p (bar)</t>
+  </si>
+  <si>
+    <t>T(K)</t>
+  </si>
+  <si>
+    <t>10^6 * V (M^3/s)</t>
+  </si>
+  <si>
+    <t>feed Yco</t>
+  </si>
+  <si>
+    <t>feed Yco2</t>
+  </si>
+  <si>
+    <t>feed Yh2</t>
+  </si>
+  <si>
+    <t>Yco</t>
+  </si>
+  <si>
+    <t>Yco2</t>
+  </si>
+  <si>
+    <t>Yh2</t>
+  </si>
+  <si>
+    <t>Ych3oh</t>
+  </si>
+  <si>
+    <t>Yh2o</t>
+  </si>
+  <si>
+    <t>Yrest</t>
+  </si>
+  <si>
+    <t>wcat (g)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0."/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="00.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -73,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -85,6 +142,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -401,87 +468,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="9" width="16.1640625" customWidth="1"/>
+    <col min="5" max="7" width="16.1640625" style="5" customWidth="1"/>
+    <col min="8" max="9" width="16.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>15.1</v>
       </c>
-      <c r="C1" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D1" s="2">
+      <c r="C2" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D2" s="2">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H2" s="3">
         <v>4.3E-3</v>
       </c>
-      <c r="F1" s="3">
+      <c r="I2" s="3">
         <v>0.10100000000000001</v>
       </c>
-      <c r="G1" s="3">
+      <c r="J2" s="3">
         <v>0.86609999999999998</v>
       </c>
-      <c r="H1" s="3">
+      <c r="K2" s="3">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="I1" s="3">
+      <c r="L2" s="3">
         <v>1.66E-2</v>
       </c>
-      <c r="J1" s="3">
+      <c r="M2" s="3">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="N2" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5.99</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.1087</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.87450000000000006</v>
-      </c>
-      <c r="H2" s="3">
-        <v>6.3E-3</v>
-      </c>
-      <c r="I2" s="3">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>15</v>
@@ -490,62 +586,90 @@
         <v>483.5</v>
       </c>
       <c r="D3" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1087</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.87450000000000006</v>
+      </c>
+      <c r="K3" s="3">
+        <v>6.3E-3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D4" s="2">
         <v>10.220000000000001</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H4" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="I4" s="3">
         <v>0.11</v>
       </c>
-      <c r="G3" s="3">
+      <c r="J4" s="3">
         <v>0.87819999999999998</v>
       </c>
-      <c r="H3" s="3">
+      <c r="K4" s="3">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="I3" s="3">
+      <c r="L4" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>14.8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>14.87</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.112</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.87949999999999995</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="I4" s="3">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>14.8</v>
@@ -554,442 +678,684 @@
         <v>483.5</v>
       </c>
       <c r="D5" s="2">
+        <v>14.87</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.112</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D6" s="2">
         <v>22.16</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H6" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="I6" s="3">
         <v>0.11169999999999999</v>
       </c>
-      <c r="G5" s="3">
+      <c r="J6" s="3">
         <v>0.88239999999999996</v>
       </c>
-      <c r="H5" s="3">
+      <c r="K6" s="3">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="L6" s="3">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>14.9</v>
       </c>
-      <c r="C6" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C7" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D7" s="2">
         <v>25.29</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H7" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="I7" s="3">
         <v>0.1125</v>
       </c>
-      <c r="G6" s="3">
+      <c r="J7" s="3">
         <v>0.88229999999999997</v>
       </c>
-      <c r="H6" s="3">
+      <c r="K7" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I6" s="3">
+      <c r="L7" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>30.2</v>
       </c>
-      <c r="C7" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C8" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D8" s="2">
         <v>2.02</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H8" s="3">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="I8" s="3">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="J8" s="3">
         <v>0.85529999999999995</v>
       </c>
-      <c r="H7" s="3">
+      <c r="K8" s="3">
         <v>2.07E-2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="L8" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>30</v>
       </c>
-      <c r="C8" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C9" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D9" s="2">
         <v>5.07</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H9" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I9" s="3">
         <v>0.1032</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J9" s="3">
         <v>0.86639999999999995</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K9" s="3">
         <v>1.29E-2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L9" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>30.1</v>
       </c>
-      <c r="C9" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C10" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D10" s="2">
         <v>10.19</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H10" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I10" s="3">
         <v>0.1082</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J10" s="3">
         <v>0.87190000000000001</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K10" s="3">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L10" s="3">
         <v>0.01</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>30</v>
       </c>
-      <c r="C10" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C11" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D11" s="2">
         <v>17.170000000000002</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H11" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I11" s="3">
         <v>0.1105</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J11" s="3">
         <v>0.87609999999999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K11" s="3">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L11" s="3">
         <v>6.6E-3</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>29.9</v>
       </c>
-      <c r="C11" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C12" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D12" s="2">
         <v>21.11</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H12" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F11" s="3">
+      <c r="I12" s="3">
         <v>0.1101</v>
       </c>
-      <c r="G11" s="3">
+      <c r="J12" s="3">
         <v>0.87870000000000004</v>
       </c>
-      <c r="H11" s="3">
+      <c r="K12" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="I11" s="3">
+      <c r="L12" s="3">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>29.7</v>
       </c>
-      <c r="C12" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C13" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D13" s="2">
         <v>29.14</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H13" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I13" s="3">
         <v>0.1132</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J13" s="3">
         <v>0.87829999999999997</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K13" s="3">
         <v>3.8E-3</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L13" s="3">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>50.3</v>
       </c>
-      <c r="C13" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C14" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D14" s="2">
         <v>1.35</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H14" s="3">
         <v>3.8E-3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="I14" s="3">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="J14" s="3">
         <v>0.83989999999999998</v>
       </c>
-      <c r="H13" s="3">
+      <c r="K14" s="3">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="L14" s="3">
         <v>3.78E-2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="M14" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="N14" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>49.9</v>
       </c>
-      <c r="C14" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C15" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D15" s="2">
         <v>4.5599999999999996</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H15" s="3">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I15" s="3">
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J15" s="3">
         <v>0.86109999999999998</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K15" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L15" s="3">
         <v>0.02</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M15" s="3">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="N15" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="4">
         <v>50</v>
       </c>
-      <c r="C15" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C16" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D16" s="2">
         <v>10.74</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H16" s="3">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I16" s="3">
         <v>0.1053</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J16" s="3">
         <v>0.87009999999999998</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K16" s="3">
         <v>1.06E-2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L16" s="3">
         <v>1.23E-2</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>50.1</v>
       </c>
-      <c r="C16" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C17" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D17" s="2">
         <v>15.94</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H17" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F16" s="3">
+      <c r="I17" s="3">
         <v>0.1081</v>
       </c>
-      <c r="G16" s="3">
+      <c r="J17" s="3">
         <v>0.87290000000000001</v>
       </c>
-      <c r="H16" s="3">
+      <c r="K17" s="3">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="I16" s="3">
+      <c r="L17" s="3">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4">
         <v>50</v>
       </c>
-      <c r="C17" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C18" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D18" s="2">
         <v>20.21</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H18" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I18" s="3">
         <v>0.108</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J18" s="3">
         <v>0.87570000000000003</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K18" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L18" s="3">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>49.8</v>
       </c>
-      <c r="C18" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C19" s="2">
+        <v>483.5</v>
+      </c>
+      <c r="D19" s="2">
         <v>26.98</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H19" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I19" s="3">
         <v>0.1099</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J19" s="3">
         <v>0.87680000000000002</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K19" s="3">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L19" s="3">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>

--- a/cantera_simulations/Graaf_data/Feed_6a.xlsx
+++ b/cantera_simulations/Graaf_data/Feed_6a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blais.ch/_01_code/05_Project_repos_Github/meOH_repos/meOH-analysis/cantera_simulations/Graaf_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D25250-FE82-2944-B17A-59F823512258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEE8C51-6925-9340-AFFB-AFA2C07E66CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>run</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>wcat (g)</t>
+  </si>
+  <si>
+    <t>CO2/(CO+CO2)</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H2" sqref="H2:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -480,12 +483,12 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="7" width="16.1640625" style="5" customWidth="1"/>
-    <col min="8" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="5" max="8" width="16.1640625" style="5" customWidth="1"/>
+    <col min="9" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -508,28 +511,31 @@
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -551,31 +557,35 @@
       <c r="G2" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="7">
+        <f>F2/(E2+F2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
         <v>4.3E-3</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>0.10100000000000001</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>0.86609999999999998</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>1.66E-2</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>1E-4</v>
       </c>
-      <c r="N2" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="O2" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -597,31 +607,35 @@
       <c r="G3" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H19" si="0">F3/(E3+F3)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>0.1087</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>0.87450000000000006</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>6.3E-3</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -643,31 +657,35 @@
       <c r="G4" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>0.11</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>0.87819999999999998</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -689,31 +707,35 @@
       <c r="G5" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
         <v>1E-3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>0.112</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>0.87949999999999995</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -735,31 +757,35 @@
       <c r="G6" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>0.11169999999999999</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>0.88239999999999996</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -781,31 +807,35 @@
       <c r="G7" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>0.1125</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>0.88229999999999997</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -827,31 +857,35 @@
       <c r="G8" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>0.85529999999999995</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2.07E-2</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -873,31 +907,35 @@
       <c r="G9" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>0.1032</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>0.86639999999999995</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1.29E-2</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -919,31 +957,35 @@
       <c r="G10" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>0.1082</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>0.87190000000000001</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>0.01</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -965,31 +1007,35 @@
       <c r="G11" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>0.1105</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>0.87609999999999999</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>6.6E-3</v>
       </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1011,31 +1057,35 @@
       <c r="G12" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>0.1101</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>0.87870000000000004</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1057,31 +1107,35 @@
       <c r="G13" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>0.1132</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>0.87829999999999997</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>3.8E-3</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1103,31 +1157,35 @@
       <c r="G14" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
         <v>3.8E-3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>0.83989999999999998</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3.78E-2</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="N14" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="O14" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1149,31 +1207,35 @@
       <c r="G15" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>0.86109999999999998</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>0.02</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1E-4</v>
       </c>
-      <c r="N15" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="O15" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1195,31 +1257,35 @@
       <c r="G16" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>0.1053</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>0.87009999999999998</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>1.06E-2</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>1.23E-2</v>
       </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1241,31 +1307,35 @@
       <c r="G17" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>0.1081</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>0.87290000000000001</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1287,31 +1357,35 @@
       <c r="G18" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
         <v>1E-3</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>0.108</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>0.87570000000000003</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1333,29 +1407,33 @@
       <c r="G19" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>0.1099</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>0.87680000000000002</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="6"/>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>

--- a/cantera_simulations/Graaf_data/Feed_6a.xlsx
+++ b/cantera_simulations/Graaf_data/Feed_6a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blais.ch/_01_code/05_Project_repos_Github/meOH_repos/meOH-analysis/cantera_simulations/Graaf_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEE8C51-6925-9340-AFFB-AFA2C07E66CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA788C84-07E0-1A4A-AB19-2C6656B45AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,10 +80,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0."/>
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="00.0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -133,30 +131,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +461,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H19"/>
+      <selection activeCell="A2" sqref="A2:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -483,957 +470,957 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="8" width="16.1640625" style="5" customWidth="1"/>
+    <col min="5" max="8" width="16.1640625" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.1640625" customWidth="1"/>
     <col min="11" max="11" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
         <v>15.1</v>
       </c>
-      <c r="C2" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D2" s="5">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G2" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H2" s="7">
         <f>F2/(E2+F2)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
         <v>4.3E-3</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="5">
         <v>0.10100000000000001</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="5">
         <v>0.86609999999999998</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="5">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="5">
         <v>1.66E-2</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="5">
         <v>1E-4</v>
       </c>
-      <c r="O2" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="6"/>
+      <c r="O2" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>15</v>
       </c>
-      <c r="C3" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D3" s="5">
         <v>5.99</v>
       </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G3" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H19" si="0">F3/(E3+F3)</f>
         <v>1</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="5">
         <v>0.1087</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="5">
         <v>0.87450000000000006</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="5">
         <v>6.3E-3</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="5">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="6"/>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D4" s="5">
         <v>10.220000000000001</v>
       </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G4" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="5">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <v>0.11</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="5">
         <v>0.87819999999999998</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="5">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="6"/>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>14.8</v>
       </c>
-      <c r="C5" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D5" s="5">
         <v>14.87</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G5" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="5">
         <v>1E-3</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="5">
         <v>0.112</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="5">
         <v>0.87949999999999995</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="5">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="5">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6"/>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>14.8</v>
       </c>
-      <c r="C6" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D6" s="5">
         <v>22.16</v>
       </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G6" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="5">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="5">
         <v>0.11169999999999999</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="5">
         <v>0.88239999999999996</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="5">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="5">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="6"/>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>14.9</v>
       </c>
-      <c r="C7" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D7" s="5">
         <v>25.29</v>
       </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G7" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="5">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="5">
         <v>0.1125</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="5">
         <v>0.88229999999999997</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="6"/>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>30.2</v>
       </c>
-      <c r="C8" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D8" s="5">
         <v>2.02</v>
       </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G8" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="5">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="5">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="5">
         <v>0.85529999999999995</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="5">
         <v>2.07E-2</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>30</v>
       </c>
-      <c r="C9" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D9" s="5">
         <v>5.07</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G9" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="5">
         <v>0.1032</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="5">
         <v>0.86639999999999995</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="5">
         <v>1.29E-2</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="6"/>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>30.1</v>
       </c>
-      <c r="C10" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D10" s="5">
         <v>10.19</v>
       </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G10" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="5">
         <v>1.5E-3</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="5">
         <v>0.1082</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="5">
         <v>0.87190000000000001</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="5">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="5">
         <v>0.01</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="6"/>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>30</v>
       </c>
-      <c r="C11" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D11" s="5">
         <v>17.170000000000002</v>
       </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G11" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="5">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="5">
         <v>0.1105</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="5">
         <v>0.87609999999999999</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="5">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="6"/>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>29.9</v>
       </c>
-      <c r="C12" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D12" s="5">
         <v>21.11</v>
       </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G12" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="5">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="5">
         <v>0.1101</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="5">
         <v>0.87870000000000004</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="5">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="5">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="6"/>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>29.7</v>
       </c>
-      <c r="C13" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D13" s="5">
         <v>29.14</v>
       </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G13" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="5">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="5">
         <v>0.1132</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="5">
         <v>0.87829999999999997</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="5">
         <v>3.8E-3</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="5">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="6"/>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>50.3</v>
       </c>
-      <c r="C14" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D14" s="5">
         <v>1.35</v>
       </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G14" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="5">
         <v>3.8E-3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="5">
         <v>0.83989999999999998</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="5">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="5">
         <v>3.78E-2</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="5">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O14" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="6"/>
+      <c r="O14" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>49.9</v>
       </c>
-      <c r="C15" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D15" s="5">
         <v>4.5599999999999996</v>
       </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G15" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="5">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="5">
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="5">
         <v>0.86109999999999998</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="5">
         <v>0.02</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="5">
         <v>1E-4</v>
       </c>
-      <c r="O15" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
+      <c r="O15" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>50</v>
       </c>
-      <c r="C16" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D16" s="5">
         <v>10.74</v>
       </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G16" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="5">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="5">
         <v>0.1053</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="5">
         <v>0.87009999999999998</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="5">
         <v>1.06E-2</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="5">
         <v>1.23E-2</v>
       </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="6"/>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>50.1</v>
       </c>
-      <c r="C17" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D17" s="5">
         <v>15.94</v>
       </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G17" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="5">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="5">
         <v>0.1081</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="5">
         <v>0.87290000000000001</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="5">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="5">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="6"/>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>50</v>
       </c>
-      <c r="C18" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D18" s="5">
         <v>20.21</v>
       </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G18" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="5">
         <v>1E-3</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="5">
         <v>0.108</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="5">
         <v>0.87570000000000003</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="5">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="5">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="6"/>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <v>49.8</v>
       </c>
-      <c r="C19" s="2">
-        <v>483.5</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="D19" s="5">
         <v>26.98</v>
       </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0.115</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G19" s="6">
         <v>0.88500000000000001</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="5">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="5">
         <v>0.1099</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="5">
         <v>0.87680000000000002</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="5">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="5">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="6"/>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>

--- a/cantera_simulations/Graaf_data/Feed_6a.xlsx
+++ b/cantera_simulations/Graaf_data/Feed_6a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blais.ch/_01_code/05_Project_repos_Github/meOH_repos/meOH-analysis/cantera_simulations/Graaf_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA788C84-07E0-1A4A-AB19-2C6656B45AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2733038E-07F8-7146-9818-A60C05EDA260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>run</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>CO2/(CO+CO2)</t>
+  </si>
+  <si>
+    <t>feed</t>
   </si>
 </sst>
 </file>
@@ -81,8 +84,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -94,6 +97,7 @@
     <font>
       <sz val="11.5"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,12 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -144,6 +148,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,969 +463,1026 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O19"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="8" width="16.1640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="9" width="16.1640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="16.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>6</v>
       </c>
       <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>15.1</v>
       </c>
-      <c r="C2" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D2" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E2" s="5">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
       <c r="F2" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G2" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H2" s="7">
-        <f>F2/(E2+F2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I2" s="7">
+        <f>G2/(F2+G2)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
         <v>4.3E-3</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>0.10100000000000001</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>0.86609999999999998</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>1.66E-2</v>
       </c>
-      <c r="N2" s="5">
+      <c r="O2" s="5">
         <v>1E-4</v>
       </c>
-      <c r="O2" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="P2" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="C3" s="5">
         <v>15</v>
       </c>
-      <c r="C3" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D3" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E3" s="5">
         <v>5.99</v>
       </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
       <c r="F3" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G3" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H19" si="0">F3/(E3+F3)</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I19" si="0">G3/(F3+G3)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>0.1087</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>0.87450000000000006</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>6.3E-3</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="5">
         <v>15</v>
       </c>
-      <c r="C4" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D4" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E4" s="5">
         <v>10.220000000000001</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
       <c r="F4" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>0.11</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>0.87819999999999998</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C5" s="5">
         <v>14.8</v>
       </c>
-      <c r="C5" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D5" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E5" s="5">
         <v>14.87</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
       <c r="F5" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
         <v>1E-3</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>0.112</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>0.87949999999999995</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C6" s="5">
         <v>14.8</v>
       </c>
-      <c r="C6" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D6" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E6" s="5">
         <v>22.16</v>
       </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
       <c r="F6" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>0.11169999999999999</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>0.88239999999999996</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
         <v>14.9</v>
       </c>
-      <c r="C7" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D7" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E7" s="5">
         <v>25.29</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
       <c r="F7" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>0.1125</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>0.88229999999999997</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C8" s="5">
         <v>30.2</v>
       </c>
-      <c r="C8" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D8" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E8" s="5">
         <v>2.02</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
       <c r="F8" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>0.85529999999999995</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>2.07E-2</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="C9" s="5">
         <v>30</v>
       </c>
-      <c r="C9" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D9" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E9" s="5">
         <v>5.07</v>
       </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
       <c r="F9" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G9" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>0.1032</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>0.86639999999999995</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>1.29E-2</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="C10" s="5">
         <v>30.1</v>
       </c>
-      <c r="C10" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D10" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E10" s="5">
         <v>10.19</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
       <c r="F10" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
         <v>1.5E-3</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>0.1082</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>0.87190000000000001</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>0.01</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="C11" s="5">
         <v>30</v>
       </c>
-      <c r="C11" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D11" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E11" s="5">
         <v>17.170000000000002</v>
       </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
       <c r="F11" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>0.1105</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <v>0.87609999999999999</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="C12" s="5">
         <v>29.9</v>
       </c>
-      <c r="C12" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D12" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E12" s="5">
         <v>21.11</v>
       </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
       <c r="F12" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>0.1101</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>0.87870000000000004</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="C13" s="5">
         <v>29.7</v>
       </c>
-      <c r="C13" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D13" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E13" s="5">
         <v>29.14</v>
       </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
       <c r="F13" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>0.1132</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>0.87829999999999997</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>3.8E-3</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="C14" s="5">
         <v>50.3</v>
       </c>
-      <c r="C14" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D14" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E14" s="5">
         <v>1.35</v>
       </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
       <c r="F14" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
         <v>3.8E-3</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>0.83989999999999998</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>3.78E-2</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O14" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="P14" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="C15" s="5">
         <v>49.9</v>
       </c>
-      <c r="C15" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D15" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E15" s="5">
         <v>4.5599999999999996</v>
       </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
       <c r="F15" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G15" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I15" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <v>0.86109999999999998</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>0.02</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="5">
         <v>1E-4</v>
       </c>
-      <c r="O15" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="P15" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="C16" s="5">
         <v>50</v>
       </c>
-      <c r="C16" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D16" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E16" s="5">
         <v>10.74</v>
       </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
       <c r="F16" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G16" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K16" s="5">
         <v>0.1053</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <v>0.87009999999999998</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>1.06E-2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>1.23E-2</v>
       </c>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="C17" s="5">
         <v>50.1</v>
       </c>
-      <c r="C17" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D17" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E17" s="5">
         <v>15.94</v>
       </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
       <c r="F17" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G17" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <v>0.1081</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <v>0.87290000000000001</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="C18" s="5">
         <v>50</v>
       </c>
-      <c r="C18" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D18" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E18" s="5">
         <v>20.21</v>
       </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
       <c r="F18" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G18" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
         <v>1E-3</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>0.108</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>0.87570000000000003</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="C19" s="5">
         <v>49.8</v>
       </c>
-      <c r="C19" s="5">
-        <v>483.5</v>
-      </c>
       <c r="D19" s="5">
+        <v>483.5</v>
+      </c>
+      <c r="E19" s="5">
         <v>26.98</v>
       </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
       <c r="F19" s="6">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G19" s="6">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H19" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <v>0.1099</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>0.87680000000000002</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
